--- a/files/upload/Templateupload.xlsx
+++ b/files/upload/Templateupload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +29,11 @@
       <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Roboto"/>
+      <color rgb="FF3C4043"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
@@ -63,10 +68,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,16 +451,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="13.44140625" customWidth="1" min="1" max="7"/>
-    <col width="14.6640625" customWidth="1" min="9" max="15"/>
+    <col width="13.42578125" customWidth="1" min="1" max="7"/>
+    <col width="14.7109375" customWidth="1" min="9" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,23 +536,69 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Warsaw Spire</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Plac Europejski 1</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Warsaw</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05-420</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>5213720347</v>
+          <t>00-839</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>PJATK</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Koszykowa 86</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Warsaw</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>02-008</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Philharmonic. Henryk Wieniawski Lublin</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Marii Curie-Skłodowskiej 5</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Lublin</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>20-400</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/files/upload/Templateupload.xlsx
+++ b/files/upload/Templateupload.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,11 +29,6 @@
       <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Roboto"/>
-      <color rgb="FF3C4043"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
@@ -68,11 +63,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +448,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -536,17 +530,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Warsaw Spire</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Plac Europejski 1</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Warsaw</t>
         </is>
@@ -558,17 +552,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>PJATK</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Koszykowa 86</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Warsaw</t>
         </is>
@@ -580,22 +574,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Philharmonic. Henryk Wieniawski Lublin</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Marii Curie-Skłodowskiej 5</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Lublin</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>20-400</t>
         </is>
